--- a/Jogos_do_Dia/2023-10-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD65"/>
+  <dimension ref="A1:AQ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,6 +588,71 @@
           <t>XG_Total_Pre</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_H</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_D</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_A</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over75</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under75</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over85</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under85</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over95</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under95</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over105</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under105</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over115</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under115</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -617,61 +682,61 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="Z2" t="n">
         <v>3</v>
@@ -687,6 +752,45 @@
       </c>
       <c r="AD2" t="n">
         <v>3.75</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -726,13 +830,13 @@
         <v>5.53</v>
       </c>
       <c r="J3" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="K3" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.44</v>
@@ -756,7 +860,7 @@
         <v>2.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U3" t="n">
         <v>1.95</v>
@@ -787,6 +891,45 @@
       </c>
       <c r="AD3" t="n">
         <v>2.43</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,61 +960,61 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z4" t="n">
         <v>1.75</v>
@@ -887,6 +1030,45 @@
       </c>
       <c r="AD4" t="n">
         <v>2.23</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -926,13 +1108,13 @@
         <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.4</v>
@@ -953,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="n">
         <v>1.73</v>
@@ -987,6 +1169,45 @@
       </c>
       <c r="AD5" t="n">
         <v>2.96</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1026,13 +1247,13 @@
         <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M6" t="n">
         <v>1.3</v>
@@ -1053,10 +1274,10 @@
         <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
         <v>1.67</v>
@@ -1087,6 +1308,45 @@
       </c>
       <c r="AD6" t="n">
         <v>2.59</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="7">
@@ -1126,13 +1386,13 @@
         <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="K7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>1.4</v>
@@ -1153,7 +1413,7 @@
         <v>3.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T7" t="n">
         <v>1.83</v>
@@ -1187,12 +1447,51 @@
       </c>
       <c r="AD7" t="n">
         <v>2.54</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Croatia Prva HNL</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1208,91 +1507,130 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Radnički Niš</t>
+          <t>Slaven Koprivnica</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Varaždin</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AA8" t="n">
         <v>1</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.74</v>
+        <v>1.31</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AD8" t="n">
-        <v>3.11</v>
+        <v>2.67</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1304,95 +1642,134 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.68</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.28</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="K9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L9" t="n">
         <v>2.7</v>
       </c>
-      <c r="L9" t="n">
-        <v>2.4</v>
-      </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="R9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN9" t="n">
         <v>2.37</v>
       </c>
-      <c r="S9" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>3.16</v>
+      <c r="AO9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Croatia Prva HNL</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1408,91 +1785,130 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Slaven Koprivnica</t>
+          <t>Radnički Niš</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Varaždin</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="H10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>5.02</v>
       </c>
       <c r="J10" t="n">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="K10" t="n">
-        <v>3.18</v>
+        <v>3.45</v>
       </c>
       <c r="L10" t="n">
-        <v>2.72</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P10" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="R10" t="n">
-        <v>3.4</v>
+        <v>2.93</v>
       </c>
       <c r="S10" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.79</v>
+        <v>1.55</v>
       </c>
       <c r="U10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.73</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z10" t="n">
         <v>2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.4</v>
       </c>
       <c r="AA10" t="n">
         <v>1</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.31</v>
+        <v>1.74</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.67</v>
+        <v>3.11</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1504,89 +1920,128 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG11" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="AH11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN11" t="n">
         <v>2.63</v>
       </c>
-      <c r="K11" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P11" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AC11" t="n">
+      <c r="AO11" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>1.29</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>3.07</v>
       </c>
     </row>
     <row r="12">
@@ -1608,85 +2063,124 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Horn</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kapfenberger SV</t>
+          <t>Ried</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H12" t="n">
         <v>2.4</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W12" t="n">
         <v>2.3</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="X12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD12" t="n">
         <v>3.3</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>3.02</v>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1708,85 +2202,124 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SV Stripfing Weiden</t>
+          <t>Leoben</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>St. Pölten</t>
+          <t>Lafnitz</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.75</v>
+        <v>3.11</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="S13" t="n">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="T13" t="n">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V13" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.54</v>
+        <v>1.22</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.03</v>
+        <v>2.78</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1808,85 +2341,124 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Leoben</t>
+          <t>Horn</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lafnitz</t>
+          <t>Kapfenberger SV</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN14" t="n">
         <v>2.3</v>
       </c>
-      <c r="I14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>2.78</v>
+      <c r="AO14" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="15">
@@ -1908,85 +2480,124 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Amstetten</t>
+          <t>SV Stripfing Weiden</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ried</t>
+          <t>St. Pölten</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="H15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="I15" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>3.64</v>
       </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L15" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="S15" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="T15" t="n">
         <v>2.1</v>
       </c>
       <c r="U15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.3</v>
+        <v>3.03</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2029,10 +2640,10 @@
         <v>2.8</v>
       </c>
       <c r="K16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M16" t="n">
         <v>1.4</v>
@@ -2053,10 +2664,10 @@
         <v>3.3</v>
       </c>
       <c r="S16" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T16" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="U16" t="n">
         <v>1.75</v>
@@ -2087,6 +2698,45 @@
       </c>
       <c r="AD16" t="n">
         <v>2.36</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="17">
@@ -2129,10 +2779,10 @@
         <v>1.5</v>
       </c>
       <c r="K17" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="M17" t="n">
         <v>1.25</v>
@@ -2153,10 +2803,10 @@
         <v>4.75</v>
       </c>
       <c r="S17" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="T17" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="U17" t="n">
         <v>1.57</v>
@@ -2187,6 +2837,45 @@
       </c>
       <c r="AD17" t="n">
         <v>2.84</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="18">
@@ -2229,10 +2918,10 @@
         <v>2.3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M18" t="n">
         <v>1.33</v>
@@ -2253,7 +2942,7 @@
         <v>3.75</v>
       </c>
       <c r="S18" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -2287,6 +2976,45 @@
       </c>
       <c r="AD18" t="n">
         <v>2.69</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="19">
@@ -2308,85 +3036,124 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Fatih Karagümrük</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V19" t="n">
         <v>2.35</v>
       </c>
-      <c r="I19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="W19" t="n">
         <v>1.33</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P19" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.4</v>
       </c>
       <c r="X19" t="n">
         <v>1.3</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="Z19" t="n">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="20">
@@ -2408,91 +3175,130 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="H20" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="K20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N20" t="n">
         <v>3.6</v>
       </c>
-      <c r="L20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.4</v>
-      </c>
       <c r="O20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="R20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="S20" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="T20" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="U20" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="V20" t="n">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="W20" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X20" t="n">
         <v>1.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.25</v>
+        <v>0.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -2504,89 +3310,128 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="H21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y21" t="n">
         <v>2.05</v>
       </c>
-      <c r="I21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="Z21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI21" t="n">
         <v>3.3</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>2.52</v>
+      <c r="AJ21" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="22">
@@ -2626,13 +3471,13 @@
         <v>4.05</v>
       </c>
       <c r="J22" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M22" t="n">
         <v>1.43</v>
@@ -2653,7 +3498,7 @@
         <v>2.93</v>
       </c>
       <c r="S22" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="T22" t="n">
         <v>1.7</v>
@@ -2687,12 +3532,51 @@
       </c>
       <c r="AD22" t="n">
         <v>2.23</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -2704,89 +3588,128 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="I23" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L23" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="M23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W23" t="n">
         <v>1.3</v>
       </c>
-      <c r="N23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.22</v>
-      </c>
       <c r="X23" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AD23" t="n">
-        <v>2.95</v>
+        <v>2.52</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2817,46 +3740,46 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
         <v>2.5</v>
       </c>
       <c r="I24" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="K24" t="n">
         <v>3.75</v>
       </c>
       <c r="L24" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="S24" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="T24" t="n">
-        <v>2.9</v>
+        <v>2.59</v>
       </c>
       <c r="U24" t="n">
         <v>1.4</v>
@@ -2887,6 +3810,45 @@
       </c>
       <c r="AD24" t="n">
         <v>3.54</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2917,52 +3879,52 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>2.3</v>
       </c>
       <c r="I25" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J25" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="K25" t="n">
+        <v>4</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N25" t="n">
         <v>3.25</v>
       </c>
-      <c r="L25" t="n">
+      <c r="O25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R25" t="n">
         <v>4</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
       <c r="S25" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="U25" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W25" t="n">
         <v>1.2</v>
@@ -2987,6 +3949,45 @@
       </c>
       <c r="AD25" t="n">
         <v>2.13</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3008,85 +4009,124 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="H26" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>1.53</v>
+        <v>2.75</v>
       </c>
       <c r="K26" t="n">
-        <v>4.02</v>
+        <v>3.5</v>
       </c>
       <c r="L26" t="n">
-        <v>5.3</v>
+        <v>2.45</v>
       </c>
       <c r="M26" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="N26" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O26" t="n">
         <v>1.03</v>
       </c>
       <c r="P26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q26" t="n">
         <v>1.22</v>
       </c>
       <c r="R26" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="T26" t="n">
         <v>2.05</v>
       </c>
       <c r="U26" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="V26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA26" t="n">
         <v>2</v>
       </c>
-      <c r="W26" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.25</v>
-      </c>
       <c r="AB26" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.92</v>
+        <v>1.39</v>
       </c>
       <c r="AD26" t="n">
-        <v>2.59</v>
+        <v>2.82</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3188,6 +4228,45 @@
       <c r="AD27" t="n">
         <v>2.99</v>
       </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3226,13 +4305,13 @@
         <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="K28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="M28" t="n">
         <v>1.36</v>
@@ -3253,10 +4332,10 @@
         <v>3.6</v>
       </c>
       <c r="S28" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="T28" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
         <v>1.95</v>
@@ -3287,6 +4366,45 @@
       </c>
       <c r="AD28" t="n">
         <v>3.36</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3326,13 +4444,13 @@
         <v>2.25</v>
       </c>
       <c r="J29" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="K29" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L29" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="M29" t="n">
         <v>1.25</v>
@@ -3353,10 +4471,10 @@
         <v>4.5</v>
       </c>
       <c r="S29" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="T29" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="U29" t="n">
         <v>1.53</v>
@@ -3387,6 +4505,45 @@
       </c>
       <c r="AD29" t="n">
         <v>2.38</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="30">
@@ -3488,6 +4645,45 @@
       <c r="AD30" t="n">
         <v>2.8</v>
       </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3508,85 +4704,124 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="H31" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>2.75</v>
+        <v>1.53</v>
       </c>
       <c r="K31" t="n">
-        <v>3.5</v>
+        <v>4.02</v>
       </c>
       <c r="L31" t="n">
-        <v>2.45</v>
+        <v>5.3</v>
       </c>
       <c r="M31" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="N31" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O31" t="n">
         <v>1.03</v>
       </c>
       <c r="P31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q31" t="n">
         <v>1.22</v>
       </c>
       <c r="R31" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="S31" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="T31" t="n">
         <v>2.05</v>
       </c>
       <c r="U31" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="V31" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W31" t="n">
-        <v>1.57</v>
+        <v>1.15</v>
       </c>
       <c r="X31" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.47</v>
+        <v>2.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AA31" t="n">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.39</v>
+        <v>0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>2.82</v>
+        <v>2.57</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3688,6 +4923,45 @@
       <c r="AD32" t="n">
         <v>3.02</v>
       </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3708,31 +4982,31 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="H33" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="I33" t="n">
-        <v>3.75</v>
+        <v>2.65</v>
       </c>
       <c r="J33" t="n">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="K33" t="n">
-        <v>3.75</v>
+        <v>3.52</v>
       </c>
       <c r="L33" t="n">
-        <v>3.6</v>
+        <v>2.17</v>
       </c>
       <c r="M33" t="n">
         <v>1.28</v>
@@ -3744,49 +5018,88 @@
         <v>1.02</v>
       </c>
       <c r="P33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="R33" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="S33" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T33" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="U33" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="V33" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="W33" t="n">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="X33" t="n">
         <v>1.22</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.87</v>
+        <v>1.35</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.37</v>
+        <v>1.68</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.51</v>
+        <v>1.81</v>
       </c>
       <c r="AD33" t="n">
-        <v>2.88</v>
+        <v>3.49</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3808,85 +5121,124 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="H34" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="I34" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="K34" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="L34" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P34" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V34" t="n">
         <v>2.15</v>
       </c>
-      <c r="M34" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P34" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q34" t="n">
+      <c r="W34" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AC34" t="n">
         <v>1.22</v>
       </c>
-      <c r="R34" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>1.64</v>
-      </c>
       <c r="AD34" t="n">
-        <v>3.4</v>
+        <v>3.29</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3908,85 +5260,124 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>Utrecht II</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="H35" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I35" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>1.5</v>
+        <v>1.87</v>
       </c>
       <c r="K35" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L35" t="n">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="N35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O35" t="n">
         <v>1.02</v>
       </c>
       <c r="P35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="R35" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="S35" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="T35" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V35" t="n">
         <v>2.35</v>
       </c>
-      <c r="U35" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V35" t="n">
-        <v>2.15</v>
-      </c>
       <c r="W35" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="X35" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="Z35" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AB35" t="n">
-        <v>2.07</v>
+        <v>1.24</v>
       </c>
       <c r="AC35" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AD35" t="n">
-        <v>3.29</v>
+        <v>2.52</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4008,31 +5399,31 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="H36" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="I36" t="n">
-        <v>2.65</v>
+        <v>3.75</v>
       </c>
       <c r="J36" t="n">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="K36" t="n">
-        <v>3.52</v>
+        <v>3.75</v>
       </c>
       <c r="L36" t="n">
-        <v>2.17</v>
+        <v>3.6</v>
       </c>
       <c r="M36" t="n">
         <v>1.28</v>
@@ -4044,49 +5435,88 @@
         <v>1.02</v>
       </c>
       <c r="P36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="R36" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="S36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U36" t="n">
         <v>1.57</v>
       </c>
-      <c r="T36" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.45</v>
-      </c>
       <c r="V36" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="W36" t="n">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="X36" t="n">
         <v>1.22</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.35</v>
+        <v>1.87</v>
       </c>
       <c r="Z36" t="n">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="AA36" t="n">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="AB36" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AC36" t="n">
-        <v>1.81</v>
+        <v>1.51</v>
       </c>
       <c r="AD36" t="n">
-        <v>3.49</v>
+        <v>3.12</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4108,85 +5538,124 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="H37" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="J37" t="n">
-        <v>1.87</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L37" t="n">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="M37" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="N37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AD37" t="n">
         <v>3.4</v>
       </c>
-      <c r="O37" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P37" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>2.52</v>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4217,7 +5686,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H38" t="n">
         <v>2.38</v>
@@ -4226,37 +5695,37 @@
         <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="K38" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="L38" t="n">
-        <v>4.5</v>
+        <v>3.74</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="S38" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="T38" t="n">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="U38" t="n">
         <v>1.67</v>
@@ -4287,12 +5756,51 @@
       </c>
       <c r="AD38" t="n">
         <v>3.02</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
@@ -4304,95 +5812,134 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Puszcza Niepołomice</t>
+          <t>FeralpiSalò</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y39" t="n">
         <v>1.73</v>
       </c>
-      <c r="H39" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I39" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="K39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L39" t="n">
-        <v>10</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P39" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q39" t="n">
+      <c r="Z39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AH39" t="n">
         <v>1.2</v>
       </c>
-      <c r="R39" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="U39" t="n">
+      <c r="AI39" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN39" t="n">
         <v>2.2</v>
       </c>
-      <c r="V39" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X39" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>3.16</v>
+      <c r="AO39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Austria 2. Liga</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
@@ -4404,95 +5951,134 @@
         </is>
       </c>
       <c r="D40" t="n">
+        <v>11</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Puszcza Niepołomice</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="L40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P40" t="n">
         <v>10</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>First Vienna</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Floridsdorfer AC</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H40" t="n">
+      <c r="Q40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U40" t="n">
         <v>2.2</v>
       </c>
-      <c r="I40" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="V40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AP40" t="n">
         <v>3.25</v>
       </c>
-      <c r="L40" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V40" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>2.86</v>
+      <c r="AQ40" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Germany Bundesliga</t>
+          <t>Austria 2. Liga</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
@@ -4504,95 +6090,134 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Borussia M'gladbach</t>
+          <t>First Vienna</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H41" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="I41" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="J41" t="n">
-        <v>2.15</v>
+        <v>3.04</v>
       </c>
       <c r="K41" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>2.17</v>
       </c>
       <c r="M41" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="N41" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O41" t="n">
         <v>1.02</v>
       </c>
       <c r="P41" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="R41" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="S41" t="n">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="T41" t="n">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="U41" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="V41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AP41" t="n">
         <v>2.38</v>
       </c>
-      <c r="W41" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X41" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>2.31</v>
+      <c r="AQ41" t="n">
+        <v>1.49</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Germany Bundesliga</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -4604,89 +6229,128 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Brescia</t>
+          <t>Borussia M'gladbach</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>FeralpiSalò</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P42" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN42" t="n">
         <v>2.65</v>
       </c>
-      <c r="H42" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U42" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>2.07</v>
+      <c r="AO42" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>1.21</v>
       </c>
     </row>
     <row r="43">
@@ -4726,13 +6390,13 @@
         <v>2.15</v>
       </c>
       <c r="J43" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="K43" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L43" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="M43" t="n">
         <v>1.35</v>
@@ -4753,10 +6417,10 @@
         <v>4</v>
       </c>
       <c r="S43" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T43" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U43" t="n">
         <v>1.73</v>
@@ -4787,6 +6451,45 @@
       </c>
       <c r="AD43" t="n">
         <v>2.88</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="44">
@@ -4853,10 +6556,10 @@
         <v>3.1</v>
       </c>
       <c r="S44" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="T44" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="U44" t="n">
         <v>1.82</v>
@@ -4887,6 +6590,45 @@
       </c>
       <c r="AD44" t="n">
         <v>2.43</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="45">
@@ -4926,13 +6668,13 @@
         <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K45" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>3.99</v>
       </c>
       <c r="M45" t="n">
         <v>1.35</v>
@@ -4953,10 +6695,10 @@
         <v>3.65</v>
       </c>
       <c r="S45" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="T45" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="U45" t="n">
         <v>1.62</v>
@@ -4987,6 +6729,45 @@
       </c>
       <c r="AD45" t="n">
         <v>2.43</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row r="46">
@@ -5026,13 +6807,13 @@
         <v>4.33</v>
       </c>
       <c r="J46" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="K46" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L46" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M46" t="n">
         <v>1.36</v>
@@ -5053,10 +6834,10 @@
         <v>3.4</v>
       </c>
       <c r="S46" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="T46" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U46" t="n">
         <v>1.7</v>
@@ -5087,6 +6868,45 @@
       </c>
       <c r="AD46" t="n">
         <v>2.46</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row r="47">
@@ -5126,10 +6946,10 @@
         <v>3.4</v>
       </c>
       <c r="J47" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="K47" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L47" t="n">
         <v>2.7</v>
@@ -5153,7 +6973,7 @@
         <v>3.8</v>
       </c>
       <c r="S47" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T47" t="n">
         <v>2.05</v>
@@ -5187,12 +7007,51 @@
       </c>
       <c r="AD47" t="n">
         <v>2.96</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
@@ -5204,95 +7063,134 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Athletic Club Bilbao</t>
+          <t>Albacete Balompié</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Almería</t>
+          <t>Levante UD</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.91</v>
+        <v>2.65</v>
       </c>
       <c r="H48" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="I48" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
-        <v>1.44</v>
+        <v>2.05</v>
       </c>
       <c r="K48" t="n">
-        <v>4.33</v>
+        <v>3.45</v>
       </c>
       <c r="L48" t="n">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M48" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="N48" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="O48" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="P48" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="R48" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="S48" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="T48" t="n">
-        <v>2.16</v>
+        <v>1.77</v>
       </c>
       <c r="U48" t="n">
         <v>1.8</v>
       </c>
       <c r="V48" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL48" t="n">
         <v>1.95</v>
       </c>
-      <c r="W48" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X48" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>2.66</v>
+      <c r="AM48" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
@@ -5304,95 +7202,134 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Birmingham City</t>
+          <t>Athletic Club Bilbao</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>West Bromwich Albion</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.25</v>
+        <v>1.91</v>
       </c>
       <c r="H49" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="I49" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="J49" t="n">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="K49" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="L49" t="n">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="M49" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="N49" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="O49" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="P49" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="R49" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="T49" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="U49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V49" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="W49" t="n">
-        <v>1.47</v>
+        <v>1.1</v>
       </c>
       <c r="X49" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.53</v>
+        <v>2.85</v>
       </c>
       <c r="Z49" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="AA49" t="n">
-        <v>1.2</v>
+        <v>0.33</v>
       </c>
       <c r="AB49" t="n">
-        <v>1.3</v>
+        <v>1.51</v>
       </c>
       <c r="AC49" t="n">
         <v>1.15</v>
       </c>
       <c r="AD49" t="n">
-        <v>2.45</v>
+        <v>2.66</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Wales Welsh Premier League</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
@@ -5404,89 +7341,128 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Albacete Balompié</t>
+          <t>Aberystwyth Town</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Levante UD</t>
+          <t>Connah's Quay</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.65</v>
+        <v>6.5</v>
       </c>
       <c r="H50" t="n">
-        <v>2.05</v>
+        <v>2.88</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>1.67</v>
       </c>
       <c r="J50" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P50" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>6</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="W50" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN50" t="n">
         <v>2</v>
       </c>
-      <c r="K50" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="N50" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P50" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R50" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="S50" t="n">
-        <v>2</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X50" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y50" t="n">
+      <c r="AO50" t="n">
         <v>1.73</v>
       </c>
-      <c r="Z50" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>3.04</v>
+      <c r="AP50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1.48</v>
       </c>
     </row>
     <row r="51">
@@ -5526,13 +7502,13 @@
         <v>4</v>
       </c>
       <c r="J51" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="K51" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="L51" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="M51" t="n">
         <v>1.44</v>
@@ -5553,10 +7529,10 @@
         <v>3.3</v>
       </c>
       <c r="S51" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U51" t="n">
         <v>1.8</v>
@@ -5587,12 +7563,51 @@
       </c>
       <c r="AD51" t="n">
         <v>2.33</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Wales Welsh Premier League</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
@@ -5608,85 +7623,124 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Aberystwyth Town</t>
+          <t>Birmingham City</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Connah's Quay</t>
+          <t>West Bromwich Albion</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="H52" t="n">
-        <v>2.88</v>
+        <v>2.05</v>
       </c>
       <c r="I52" t="n">
-        <v>1.67</v>
+        <v>3.4</v>
       </c>
       <c r="J52" t="n">
-        <v>6</v>
+        <v>2.38</v>
       </c>
       <c r="K52" t="n">
-        <v>6.5</v>
+        <v>3.35</v>
       </c>
       <c r="L52" t="n">
-        <v>1.25</v>
+        <v>2.95</v>
       </c>
       <c r="M52" t="n">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="N52" t="n">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="O52" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P52" t="n">
-        <v>26</v>
+        <v>9.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.1</v>
+        <v>1.38</v>
       </c>
       <c r="R52" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="S52" t="n">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="T52" t="n">
-        <v>3</v>
+        <v>1.77</v>
       </c>
       <c r="U52" t="n">
-        <v>1.45</v>
+        <v>1.83</v>
       </c>
       <c r="V52" t="n">
-        <v>2.66</v>
+        <v>1.83</v>
       </c>
       <c r="W52" t="n">
-        <v>2.6</v>
+        <v>1.47</v>
       </c>
       <c r="X52" t="n">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.09</v>
+        <v>1.53</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AA52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO52" t="n">
         <v>1.8</v>
       </c>
-      <c r="AB52" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>2.71</v>
+      <c r="AP52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="53">
@@ -5726,13 +7780,13 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="K53" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L53" t="n">
-        <v>3.25</v>
+        <v>2.78</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -5753,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="T53" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
@@ -5787,12 +7841,51 @@
       </c>
       <c r="AD53" t="n">
         <v>2.07</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Chile Primera División</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
@@ -5804,89 +7897,128 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Unión La Calera</t>
+          <t>Torque</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.42</v>
+        <v>0.67</v>
       </c>
       <c r="AA54" t="n">
-        <v>1.83</v>
+        <v>1.23</v>
       </c>
       <c r="AB54" t="n">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
       <c r="AC54" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AD54" t="n">
-        <v>3.06</v>
+        <v>2.93</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -5908,12 +8040,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Defensor Sporting</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Peñarol</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -5974,19 +8106,58 @@
         <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.58</v>
+        <v>1.77</v>
       </c>
       <c r="AA55" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="AB55" t="n">
-        <v>1.11</v>
+        <v>1.68</v>
       </c>
       <c r="AC55" t="n">
         <v>1.47</v>
       </c>
       <c r="AD55" t="n">
-        <v>2.58</v>
+        <v>3.15</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -6008,12 +8179,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>La Luz</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Deportivo Maldonado</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -6074,19 +8245,58 @@
         <v>0</v>
       </c>
       <c r="Z56" t="n">
-        <v>2.42</v>
+        <v>1.07</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB56" t="n">
-        <v>1.73</v>
+        <v>1.4</v>
       </c>
       <c r="AC56" t="n">
-        <v>1.27</v>
+        <v>0.99</v>
       </c>
       <c r="AD56" t="n">
-        <v>3</v>
+        <v>2.39</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -6108,12 +8318,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Fénix</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -6174,19 +8384,58 @@
         <v>0</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.83</v>
+        <v>1.17</v>
       </c>
       <c r="AA57" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AB57" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="AC57" t="n">
-        <v>1.48</v>
+        <v>1.26</v>
       </c>
       <c r="AD57" t="n">
-        <v>2.83</v>
+        <v>2.47</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -6208,12 +8457,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Fénix</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Racing</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -6274,19 +8523,58 @@
         <v>0</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AA58" t="n">
         <v>1.08</v>
       </c>
       <c r="AB58" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AC58" t="n">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AD58" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -6308,12 +8596,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Racing</t>
+          <t>Deportivo Maldonado</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -6374,19 +8662,58 @@
         <v>0</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.08</v>
+        <v>2.42</v>
       </c>
       <c r="AA59" t="n">
-        <v>1.08</v>
+        <v>0.86</v>
       </c>
       <c r="AB59" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC59" t="n">
         <v>1.27</v>
       </c>
-      <c r="AC59" t="n">
-        <v>1.15</v>
-      </c>
       <c r="AD59" t="n">
-        <v>2.42</v>
+        <v>3</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -6408,12 +8735,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>La Luz</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>Peñarol</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -6474,25 +8801,64 @@
         <v>0</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.07</v>
+        <v>1.58</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="AB60" t="n">
-        <v>1.4</v>
+        <v>1.11</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.99</v>
+        <v>1.47</v>
       </c>
       <c r="AD60" t="n">
-        <v>2.39</v>
+        <v>2.58</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Uruguay Primera División</t>
+          <t>Chile Primera División</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
@@ -6504,89 +8870,128 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Defensor Sporting</t>
+          <t>Unión La Calera</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="R61" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X61" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Y61" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.77</v>
+        <v>1.42</v>
       </c>
       <c r="AA61" t="n">
-        <v>1.08</v>
+        <v>1.83</v>
       </c>
       <c r="AB61" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AC61" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="AD61" t="n">
-        <v>3.15</v>
+        <v>3.06</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="62">
@@ -6608,12 +9013,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Torque</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -6674,19 +9079,58 @@
         <v>0</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.67</v>
+        <v>1.83</v>
       </c>
       <c r="AA62" t="n">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="AB62" t="n">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="AC62" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AD62" t="n">
-        <v>2.93</v>
+        <v>2.83</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -6726,10 +9170,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>4.33</v>
+        <v>4.36</v>
       </c>
       <c r="K63" t="n">
-        <v>3.53</v>
+        <v>3.7</v>
       </c>
       <c r="L63" t="n">
         <v>1.68</v>
@@ -6753,7 +9197,7 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T63" t="n">
         <v>2</v>
@@ -6787,6 +9231,45 @@
       </c>
       <c r="AD63" t="n">
         <v>2.71</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -6826,13 +9309,13 @@
         <v>3.8</v>
       </c>
       <c r="J64" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="K64" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L64" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M64" t="n">
         <v>1.4</v>
@@ -6853,10 +9336,10 @@
         <v>3.4</v>
       </c>
       <c r="S64" t="n">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="T64" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="U64" t="n">
         <v>1.78</v>
@@ -6887,6 +9370,45 @@
       </c>
       <c r="AD64" t="n">
         <v>2.68</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="65">
@@ -6987,6 +9509,323 @@
       </c>
       <c r="AD65" t="n">
         <v>2.81</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>31</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Atlético GO</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L66" t="n">
+        <v>6</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>31</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P67" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
